--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,235 +43,238 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>low</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stock</t>
+    <t>stay</t>
   </si>
   <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>stay</t>
   </si>
   <si>
     <t>food</t>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -725,16 +728,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -746,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -804,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.76</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -854,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7692307692307693</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -896,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7368421052631579</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.859375</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -954,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7226027397260274</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C8">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8309859154929577</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6410256410256411</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>0.8085106382978723</v>
@@ -1154,7 +1157,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.475</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -1172,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4705882352941176</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,22 +1222,22 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.44</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C14">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.439922480620155</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C15">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7843137254901961</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4181818181818182</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4161073825503356</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C17">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3896103896103896</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C18">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.70625</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3728813559322034</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3544973544973545</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.6631853785900783</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>129</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1607,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3333333333333333</v>
+        <v>0.3375</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1657,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2777777777777778</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.6222222222222222</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
         <v>28</v>
@@ -1696,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1707,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2625</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.6111111111111112</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>248</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,37 +1757,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1662198391420912</v>
+        <v>0.2908366533864542</v>
       </c>
       <c r="C24">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.6046511627906976</v>
+        <v>0.625</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1807,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009528585757271816</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E25">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1975</v>
+        <v>310</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.5941176470588235</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,37 +1857,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007334183673469388</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3113</v>
+        <v>146</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.5842696629213483</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L26">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="M26">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,89 +1907,113 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006682258603407952</v>
+        <v>0.007712944332662642</v>
       </c>
       <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>148</v>
+      </c>
+      <c r="E27">
+        <v>0.84</v>
+      </c>
+      <c r="F27">
+        <v>0.16</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2959</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.5728813559322034</v>
+      </c>
+      <c r="L27">
+        <v>169</v>
+      </c>
+      <c r="M27">
+        <v>169</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.007694773966014748</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>106</v>
+      </c>
+      <c r="E28">
+        <v>0.77</v>
+      </c>
+      <c r="F28">
+        <v>0.23</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>3095</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>25</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>20</v>
-      </c>
-      <c r="D27">
-        <v>134</v>
-      </c>
-      <c r="E27">
-        <v>0.85</v>
-      </c>
-      <c r="F27">
-        <v>0.15</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2973</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.58</v>
-      </c>
-      <c r="L27">
-        <v>29</v>
-      </c>
-      <c r="M27">
-        <v>29</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K28">
-        <v>0.5288135593220339</v>
-      </c>
-      <c r="L28">
-        <v>156</v>
-      </c>
-      <c r="M28">
-        <v>156</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.5128205128205128</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1998,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5104602510460251</v>
+        <v>0.525</v>
       </c>
       <c r="L30">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2024,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5068493150684932</v>
+        <v>0.515625</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2050,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.46875</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2076,21 +2103,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.4307692307692308</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2107,16 +2134,16 @@
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2128,21 +2155,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.3442622950819672</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2154,21 +2181,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.3055555555555556</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2180,21 +2207,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.2105263157894737</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2206,47 +2233,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.1774580335731415</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L38">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>343</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.1755725190839695</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2258,47 +2285,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>108</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.1682692307692308</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L40">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>346</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.1653543307086614</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2310,21 +2337,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>106</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.1534883720930233</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L42">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2336,21 +2363,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>182</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.1509433962264151</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2362,47 +2389,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.1358024691358025</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M44">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.1302325581395349</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L45">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2414,21 +2441,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.1162790697674419</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2440,345 +2467,319 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.1019036954087346</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="L47">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M47">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N47">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O47">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>802</v>
+        <v>790</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.09888888888888889</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L48">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="M48">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="N48">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O48">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>811</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.08247422680412371</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="M49">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>445</v>
+        <v>812</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.07882534775888717</v>
+        <v>0.09297520661157024</v>
       </c>
       <c r="L50">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>596</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.0749063670411985</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="L51">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>247</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.0705521472392638</v>
+        <v>0.07102539981185324</v>
       </c>
       <c r="L52">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="N52">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="O52">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>303</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.07035755478662054</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="L53">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>806</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.07015065913370998</v>
+        <v>0.05889145496535797</v>
       </c>
       <c r="L54">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="M54">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="N54">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O54">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1975</v>
+        <v>815</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="K55">
-        <v>0.06209150326797386</v>
+        <v>0.04053177691309987</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="M55">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="N55">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="O55">
-        <v>0.09999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>287</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.0369290573372206</v>
+        <v>0.03556485355648536</v>
       </c>
       <c r="L56">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="N56">
-        <v>0.85</v>
+        <v>0.74</v>
       </c>
       <c r="O56">
-        <v>0.15</v>
+        <v>0.26</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2973</v>
+        <v>922</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="K57">
-        <v>0.03121748178980229</v>
+        <v>0.02581051306263771</v>
       </c>
       <c r="L57">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="M57">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="N57">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="O57">
-        <v>0.1899999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>931</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.02045311516677156</v>
+        <v>0.01743679163034002</v>
       </c>
       <c r="L58">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N58">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="O58">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59">
-        <v>0.01906412478336222</v>
-      </c>
-      <c r="L59">
-        <v>22</v>
-      </c>
-      <c r="M59">
-        <v>29</v>
-      </c>
-      <c r="N59">
-        <v>0.76</v>
-      </c>
-      <c r="O59">
-        <v>0.24</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,241 +43,283 @@
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>shame</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>outbreak</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>amp</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
@@ -638,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +688,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9696969696969697</v>
@@ -757,13 +799,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.84</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -799,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +849,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -878,16 +920,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7191780821917808</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C7">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D7">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.859375</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -957,13 +999,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6896551724137931</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,19 +1017,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1049,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6578947368421053</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1067,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8203125</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,38 +1099,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5641025641025641</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C10">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
         <v>22</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10">
-        <v>0.8098591549295775</v>
-      </c>
-      <c r="L10">
-        <v>115</v>
-      </c>
-      <c r="M10">
-        <v>115</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1099,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1149,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5384615384615384</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1199,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5135135135135135</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1199,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1207,13 +1249,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4466019417475728</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C13">
-        <v>230</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>231</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,22 +1264,22 @@
         <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>285</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4429530201342282</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C14">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1349,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4266666666666667</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1399,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4117647058823529</v>
+        <v>0.44</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1449,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3898305084745763</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1467,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1499,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3492063492063492</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C18">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.71875</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,38 +1599,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3389830508474576</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C20">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>51</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L20">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>20</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>39</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1599,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1649,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3375</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1667,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.6702127659574468</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,49 +1699,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3111111111111111</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L22">
+        <v>66</v>
+      </c>
+      <c r="M22">
+        <v>66</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>28</v>
-      </c>
-      <c r="D22">
-        <v>28</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>62</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22">
-        <v>0.6511627906976745</v>
-      </c>
-      <c r="L22">
-        <v>28</v>
-      </c>
-      <c r="M22">
-        <v>28</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,13 +1749,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2987012987012987</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>62</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K23">
-        <v>0.6475195822454308</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,37 +1799,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2908366533864542</v>
+        <v>0.275</v>
       </c>
       <c r="C24">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6710182767624021</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>257</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1849,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1689008042895442</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C25">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1867,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>310</v>
+        <v>186</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1899,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1204819277108434</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,19 +1917,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.5852941176470589</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L26">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>199</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,87 +1949,63 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.007712944332662642</v>
+        <v>0.007378889958293231</v>
       </c>
       <c r="C27">
         <v>23</v>
       </c>
       <c r="D27">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E27">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="F27">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2959</v>
+        <v>3094</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L27">
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27">
-        <v>0.5728813559322034</v>
-      </c>
-      <c r="L27">
-        <v>169</v>
-      </c>
-      <c r="M27">
-        <v>169</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.007694773966014748</v>
-      </c>
-      <c r="C28">
+      <c r="K28">
+        <v>0.6</v>
+      </c>
+      <c r="L28">
         <v>24</v>
       </c>
-      <c r="D28">
-        <v>106</v>
-      </c>
-      <c r="E28">
-        <v>0.77</v>
-      </c>
-      <c r="F28">
-        <v>0.23</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>3095</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L28">
-        <v>25</v>
-      </c>
       <c r="M28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.5393258426966292</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2025,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.525</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2051,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.515625</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2077,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.502092050209205</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L32">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="M32">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2103,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>119</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.4931506849315068</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2129,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.4871794871794872</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2155,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.459016393442623</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2181,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.4571428571428571</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2207,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.4307692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2233,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.2047244094488189</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2259,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39">
-        <v>0.1818181818181818</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L39">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2285,47 +2303,47 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>342</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.1711711711711712</v>
+        <v>0.46875</v>
       </c>
       <c r="L40">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.1634615384615385</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L41">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2337,21 +2355,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>348</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.1450381679389313</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2363,21 +2381,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.1348837209302326</v>
+        <v>0.1889952153110048</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2389,47 +2407,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>186</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.1348837209302326</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.1272727272727273</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2441,21 +2459,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>144</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.119496855345912</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2467,241 +2485,241 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>140</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.1143497757847534</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L47">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="M47">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>790</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.1042944785276074</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L48">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N48">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O48">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>292</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.09777777777777778</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="L49">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="N49">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O49">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>812</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.09297520661157024</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L50">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M50">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>439</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.07716049382716049</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M51">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>598</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.07102539981185324</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="L52">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1975</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.06535947712418301</v>
+        <v>0.1314553990610329</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>286</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.05889145496535797</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L54">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N54">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>815</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.04053177691309987</v>
+        <v>0.1177130044843049</v>
       </c>
       <c r="L55">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="M55">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="N55">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0.16</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2959</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2709,77 +2727,441 @@
         <v>87</v>
       </c>
       <c r="K56">
-        <v>0.03556485355648536</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L56">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N56">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O56">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>922</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.02581051306263771</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L57">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M57">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N57">
-        <v>0.77</v>
+        <v>0.99</v>
       </c>
       <c r="O57">
-        <v>0.23</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>3095</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.01743679163034002</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="L58">
+        <v>21</v>
+      </c>
+      <c r="M58">
+        <v>22</v>
+      </c>
+      <c r="N58">
+        <v>0.95</v>
+      </c>
+      <c r="O58">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K59">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="L59">
+        <v>194</v>
+      </c>
+      <c r="M59">
+        <v>203</v>
+      </c>
+      <c r="N59">
+        <v>0.96</v>
+      </c>
+      <c r="O59">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K60">
+        <v>0.0898876404494382</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>24</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K61">
+        <v>0.08453608247422681</v>
+      </c>
+      <c r="L61">
+        <v>41</v>
+      </c>
+      <c r="M61">
+        <v>42</v>
+      </c>
+      <c r="N61">
+        <v>0.98</v>
+      </c>
+      <c r="O61">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K62">
+        <v>0.08243727598566308</v>
+      </c>
+      <c r="L62">
+        <v>23</v>
+      </c>
+      <c r="M62">
+        <v>25</v>
+      </c>
+      <c r="N62">
+        <v>0.92</v>
+      </c>
+      <c r="O62">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63">
+        <v>0.08143322475570032</v>
+      </c>
+      <c r="L63">
+        <v>25</v>
+      </c>
+      <c r="M63">
+        <v>26</v>
+      </c>
+      <c r="N63">
+        <v>0.96</v>
+      </c>
+      <c r="O63">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K64">
+        <v>0.07596899224806201</v>
+      </c>
+      <c r="L64">
+        <v>49</v>
+      </c>
+      <c r="M64">
+        <v>54</v>
+      </c>
+      <c r="N64">
+        <v>0.91</v>
+      </c>
+      <c r="O64">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K65">
+        <v>0.07167630057803469</v>
+      </c>
+      <c r="L65">
+        <v>62</v>
+      </c>
+      <c r="M65">
+        <v>64</v>
+      </c>
+      <c r="N65">
+        <v>0.97</v>
+      </c>
+      <c r="O65">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K66">
+        <v>0.05797101449275362</v>
+      </c>
+      <c r="L66">
         <v>20</v>
       </c>
-      <c r="M58">
-        <v>34</v>
-      </c>
-      <c r="N58">
-        <v>0.59</v>
-      </c>
-      <c r="O58">
-        <v>0.41</v>
-      </c>
-      <c r="P58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q58">
-        <v>1127</v>
+      <c r="M66">
+        <v>24</v>
+      </c>
+      <c r="N66">
+        <v>0.83</v>
+      </c>
+      <c r="O66">
+        <v>0.17</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K67">
+        <v>0.05179669796050502</v>
+      </c>
+      <c r="L67">
+        <v>160</v>
+      </c>
+      <c r="M67">
+        <v>178</v>
+      </c>
+      <c r="N67">
+        <v>0.9</v>
+      </c>
+      <c r="O67">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K68">
+        <v>0.04248704663212435</v>
+      </c>
+      <c r="L68">
+        <v>41</v>
+      </c>
+      <c r="M68">
+        <v>44</v>
+      </c>
+      <c r="N68">
+        <v>0.93</v>
+      </c>
+      <c r="O68">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69">
+        <v>0.03531598513011153</v>
+      </c>
+      <c r="L69">
+        <v>19</v>
+      </c>
+      <c r="M69">
+        <v>26</v>
+      </c>
+      <c r="N69">
+        <v>0.73</v>
+      </c>
+      <c r="O69">
+        <v>0.27</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K70">
+        <v>0.03356890459363958</v>
+      </c>
+      <c r="L70">
+        <v>19</v>
+      </c>
+      <c r="M70">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>0.95</v>
+      </c>
+      <c r="O70">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="L71">
+        <v>84</v>
+      </c>
+      <c r="M71">
+        <v>107</v>
+      </c>
+      <c r="N71">
+        <v>0.79</v>
+      </c>
+      <c r="O71">
+        <v>0.21</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K72">
+        <v>0.02422145328719723</v>
+      </c>
+      <c r="L72">
+        <v>28</v>
+      </c>
+      <c r="M72">
+        <v>33</v>
+      </c>
+      <c r="N72">
+        <v>0.85</v>
+      </c>
+      <c r="O72">
+        <v>0.15</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
